--- a/решения/Anchor/wheel3.xlsx
+++ b/решения/Anchor/wheel3.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/решения/Anchor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/app store/current/Locity/решения/Anchor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{877AF495-79F2-5644-8819-8E4F1B346731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE5A3B-1CB8-A94B-BEA3-6CE4B4761867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="2360" windowWidth="33880" windowHeight="20360" xr2:uid="{2D5C6F0C-BF6E-1B43-B662-86FAADCFD52C}"/>
+    <workbookView xWindow="10080" yWindow="3400" windowWidth="33880" windowHeight="20360" xr2:uid="{2D5C6F0C-BF6E-1B43-B662-86FAADCFD52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -714,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8683F-C40B-494C-80F0-69B04D2E8A91}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
